--- a/AAII_Financials/Yearly/ADXN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADXN_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24300</v>
+        <v>24900</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22700</v>
+        <v>-23200</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22600</v>
+        <v>-23100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-364900</v>
+        <v>-374100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="E89" s="3">
-        <v>-16200</v>
+        <v>-16700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E100" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14900</v>
+        <v>-15300</v>
       </c>
       <c r="E102" s="3">
         <v>2000</v>

--- a/AAII_Financials/Yearly/ADXN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADXN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>ADXN</t>
   </si>
@@ -714,8 +714,8 @@
       <c r="D8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>3500</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16600</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -889,8 +889,8 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24900</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-23100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-17500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -993,8 +993,8 @@
       <c r="D20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-23000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1047,8 +1047,8 @@
       <c r="D22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-17100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-17100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1317,8 +1317,8 @@
       <c r="D32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-17100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-17100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1537,8 +1537,8 @@
       <c r="D43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1591,8 @@
       <c r="D45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>1300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8900</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1780,8 +1780,8 @@
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9400</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1887,8 +1887,8 @@
       <c r="D57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>2000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1914,8 +1914,8 @@
       <c r="D58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1941,8 +1941,8 @@
       <c r="D59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="E59" s="3">
+        <v>2300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1968,8 +1968,8 @@
       <c r="D60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+      <c r="E60" s="3">
+        <v>4700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2023,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2130,8 +2130,8 @@
       <c r="D66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+      <c r="E66" s="3">
+        <v>6300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-374100</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>-371800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-356000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-17100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18600</v>
+        <v>-18500</v>
       </c>
       <c r="E89" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2944,7 +2944,7 @@
         <v>3500</v>
       </c>
       <c r="E100" s="3">
-        <v>18600</v>
+        <v>18500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="E102" s="3">
         <v>2000</v>
